--- a/Estimation_Records/loss 10 sphoradic/1MB loss 10.xlsx
+++ b/Estimation_Records/loss 10 sphoradic/1MB loss 10.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Technion\CommunicationProject\LCCN_Delay_Bit_RTT_Estimator\Estimation_Records\loss 10 sphoradic\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Technion\semester8\delayBit\LCCN_Delay_Bit_RTT_Estimator\Estimation_Records\loss 10 sphoradic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68C2A878-E4AF-47A7-A9D0-70927D2DA451}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE0D2B5F-795C-4ACB-B8F3-0F8F5698C47E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F879301E-08CA-4326-8C5D-3530C81BCC3F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,9 +23,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="9">
   <si>
     <t>SERVER TO CLIENT:</t>
   </si>
@@ -58,12 +61,15 @@
   <si>
     <t>CLIENT TO SERVER:</t>
   </si>
+  <si>
+    <t xml:space="preserve">10% Sphoradic Loss </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -74,6 +80,20 @@
     <font>
       <sz val="11"/>
       <color rgb="FF212529"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -99,9 +119,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -195,7 +217,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="LID4096"/>
+          <a:endParaRPr lang="en-IL"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2248,7 +2270,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="LID4096"/>
+              <a:endParaRPr lang="en-IL"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2286,7 +2308,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="LID4096"/>
+            <a:endParaRPr lang="en-IL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="519209311"/>
@@ -2371,7 +2393,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="LID4096"/>
+              <a:endParaRPr lang="en-IL"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2409,7 +2431,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="LID4096"/>
+            <a:endParaRPr lang="en-IL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="519198911"/>
@@ -2452,7 +2474,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="LID4096"/>
+          <a:endParaRPr lang="en-IL"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2489,7 +2511,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="LID4096"/>
+      <a:endParaRPr lang="en-IL"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2576,7 +2598,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="LID4096"/>
+          <a:endParaRPr lang="en-IL"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4627,7 +4649,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="LID4096"/>
+              <a:endParaRPr lang="en-IL"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4665,7 +4687,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="LID4096"/>
+            <a:endParaRPr lang="en-IL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="519209311"/>
@@ -4750,7 +4772,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="LID4096"/>
+              <a:endParaRPr lang="en-IL"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4788,7 +4810,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="LID4096"/>
+            <a:endParaRPr lang="en-IL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="519198911"/>
@@ -4831,7 +4853,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="LID4096"/>
+          <a:endParaRPr lang="en-IL"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -4868,7 +4890,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="LID4096"/>
+      <a:endParaRPr lang="en-IL"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5995,16 +6017,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>45720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>487680</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>548640</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:rowOff>45721</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6369,14 +6391,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02437C0D-00FD-4B74-96FB-66F97659E713}">
-  <dimension ref="A3:M570"/>
+  <dimension ref="A1:M570"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A288" workbookViewId="0">
-      <selection activeCell="Q294" sqref="Q294"/>
+    <sheetView tabSelected="1" topLeftCell="A276" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
+    <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.4">
+      <c r="A1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+    </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
@@ -13640,6 +13670,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>